--- a/docs/object type, condition, reasoning and caveat put....xlsx
+++ b/docs/object type, condition, reasoning and caveat put....xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shree\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\new\hello-world\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="98">
   <si>
     <t>Object Type</t>
   </si>
@@ -776,13 +776,49 @@
       </rPr>
       <t>.</t>
     </r>
+  </si>
+  <si>
+    <t>Synonym</t>
+  </si>
+  <si>
+    <t>No actively used objects (PL/SQL, Views, user queries) reference the synonym for a long time.</t>
+  </si>
+  <si>
+    <t>Synonyms are aliases. If the alias is not used to access the underlying object by active code, the synonym is unused in that context.</t>
+  </si>
+  <si>
+    <t>The underlying object might still be accessed directly or via other synonyms. Usage tracking for synonyms can be difficult purely from the DB.</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>No actively used tables use the type + No actively used PL/SQL objects declare variables or parameters of the type for a long time.</t>
+  </si>
+  <si>
+    <t>Types define data structures. If no active database objects or code use instances of this type, the type definition is unused in practice.</t>
+  </si>
+  <si>
+    <t>The type definition exists independently; its 'usage' is entirely dependent on objects that instantiate it. Can be used dynamically.</t>
+  </si>
+  <si>
+    <t>Scheduler Job</t>
+  </si>
+  <si>
+    <t>Job is disabled or has no recent successful execution history + Actions performed by the job are not relevant to or required by the current UI functionality.</t>
+  </si>
+  <si>
+    <t>Scheduler jobs perform automated tasks. If a job isn't running or its task is irrelevant to the current application needs, the job definition is unused in that context.</t>
+  </si>
+  <si>
+    <t>Jobs can be run manually or triggered by events not visible in standard history. The task might be critical but currently suspended.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -822,6 +858,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -837,7 +880,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -980,11 +1023,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -998,6 +1056,15 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1007,17 +1074,14 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1237,10 +1301,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="29.36328125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1248,106 +1312,152 @@
     <col min="2" max="2" width="32.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="62.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+    <row r="2" spans="1:5" ht="62.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="50" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+    <row r="3" spans="1:5" ht="50" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="50" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+    <row r="4" spans="1:5" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="62.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+    <row r="5" spans="1:5" ht="62.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="50" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+    <row r="6" spans="1:5" ht="50" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="50" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
+    <row r="7" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="6" t="s">
         <v>27</v>
       </c>
+    </row>
+    <row r="8" spans="1:5" ht="63" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="E8" s="12"/>
+    </row>
+    <row r="9" spans="1:5" ht="63" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="E9" s="12"/>
+    </row>
+    <row r="10" spans="1:5" ht="63" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="E10" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1378,273 +1488,291 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="8" t="s">
         <v>30</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="9" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
+      <c r="A3" s="8"/>
       <c r="B3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="6"/>
+      <c r="C3" s="9"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
+      <c r="A4" s="8"/>
       <c r="B4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="6"/>
+      <c r="C4" s="9"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="8" t="s">
         <v>35</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="9" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
+      <c r="A6" s="8"/>
       <c r="B6" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="6"/>
+      <c r="C6" s="9"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
+      <c r="A7" s="8"/>
       <c r="B7" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="6"/>
+      <c r="C7" s="9"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="8" t="s">
         <v>40</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="9" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
+      <c r="A9" s="8"/>
       <c r="B9" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="6"/>
+      <c r="C9" s="9"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="8" t="s">
         <v>44</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="9" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
+      <c r="A11" s="8"/>
       <c r="B11" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C11" s="6"/>
+      <c r="C11" s="9"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="8" t="s">
         <v>47</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="9" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
+      <c r="A13" s="8"/>
       <c r="B13" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C13" s="6"/>
+      <c r="C13" s="9"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="8" t="s">
         <v>51</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="9" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
+      <c r="A15" s="8"/>
       <c r="B15" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C15" s="6"/>
+      <c r="C15" s="9"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="8" t="s">
         <v>54</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="9" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
+      <c r="A17" s="8"/>
       <c r="B17" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C17" s="6"/>
+      <c r="C17" s="9"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="8" t="s">
         <v>58</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="9" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
+      <c r="A19" s="8"/>
       <c r="B19" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C19" s="6"/>
+      <c r="C19" s="9"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="8" t="s">
         <v>62</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="9" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="5"/>
+      <c r="A21" s="8"/>
       <c r="B21" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C21" s="6"/>
+      <c r="C21" s="9"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="8" t="s">
         <v>66</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="9" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="5"/>
+      <c r="A23" s="8"/>
       <c r="B23" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C23" s="6"/>
+      <c r="C23" s="9"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="8" t="s">
         <v>70</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="9" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="5"/>
+      <c r="A25" s="8"/>
       <c r="B25" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C25" s="6"/>
+      <c r="C25" s="9"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="8" t="s">
         <v>74</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="9" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="5"/>
+      <c r="A27" s="8"/>
       <c r="B27" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C27" s="6"/>
+      <c r="C27" s="9"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="8" t="s">
         <v>78</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C28" s="9" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="5"/>
+      <c r="A29" s="8"/>
       <c r="B29" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C29" s="6"/>
+      <c r="C29" s="9"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
+      <c r="A30" s="8" t="s">
         <v>82</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C30" s="9" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="13" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="7"/>
-      <c r="B31" s="8" t="s">
+      <c r="A31" s="10"/>
+      <c r="B31" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="C31" s="9"/>
+      <c r="C31" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="C20:C21"/>
     <mergeCell ref="A28:A29"/>
     <mergeCell ref="C28:C29"/>
     <mergeCell ref="A30:A31"/>
@@ -1655,24 +1783,6 @@
     <mergeCell ref="C24:C25"/>
     <mergeCell ref="A26:A27"/>
     <mergeCell ref="C26:C27"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C8:C9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
